--- a/rhla_analysis/rhla1_3_uniform_result/k2.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/k2.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006374201962700507</v>
+        <v>0.006374201962700543</v>
       </c>
       <c r="B2" t="n">
         <v>0.05543163379872162</v>
@@ -466,54 +466,54 @@
         <v>0.07289002557544758</v>
       </c>
       <c r="D2" t="n">
-        <v>8.696246859306815</v>
+        <v>8.696246859306767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.005465407929688946</v>
+        <v>0.005465407929688917</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07299068909078625</v>
+        <v>0.07299068909078626</v>
       </c>
       <c r="C3" t="n">
         <v>0.06820119352088662</v>
       </c>
       <c r="D3" t="n">
-        <v>13.35503040757296</v>
+        <v>13.35503040757303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003916251186717077</v>
+        <v>0.003916251186717087</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08438208599215993</v>
+        <v>0.08438208599215991</v>
       </c>
       <c r="C4" t="n">
         <v>0.07246376811594203</v>
       </c>
       <c r="D4" t="n">
-        <v>21.54664804912474</v>
+        <v>21.54664804912467</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.003649028129924037</v>
+        <v>0.003649028129924004</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06609609391770223</v>
+        <v>0.06609609391770224</v>
       </c>
       <c r="C5" t="n">
         <v>0.08098891730605286</v>
       </c>
       <c r="D5" t="n">
-        <v>18.1133418445525</v>
+        <v>18.11334184455267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.002893648071030181</v>
+        <v>0.002893648071030162</v>
       </c>
       <c r="B6" t="n">
         <v>0.06295924464110136</v>
@@ -522,12 +522,12 @@
         <v>0.08184143222506395</v>
       </c>
       <c r="D6" t="n">
-        <v>21.75774078106428</v>
+        <v>21.75774078106442</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.008226518471624611</v>
+        <v>0.008226518471624564</v>
       </c>
       <c r="B7" t="n">
         <v>0.06637162601650398</v>
@@ -536,12 +536,12 @@
         <v>0.0814151747655584</v>
       </c>
       <c r="D7" t="n">
-        <v>8.06800911533073</v>
+        <v>8.068009115330774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004333963752788628</v>
+        <v>0.004333963752788624</v>
       </c>
       <c r="B8" t="n">
         <v>0.06763275714778701</v>
@@ -550,12 +550,12 @@
         <v>0.08312020460358056</v>
       </c>
       <c r="D8" t="n">
-        <v>15.60528906229769</v>
+        <v>15.6052890622977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.005301328065462504</v>
+        <v>0.005301328065462486</v>
       </c>
       <c r="B9" t="n">
         <v>0.07444806532990191</v>
@@ -564,26 +564,26 @@
         <v>0.08226768968456948</v>
       </c>
       <c r="D9" t="n">
-        <v>14.04328583528377</v>
+        <v>14.04328583528382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.01035369834815324</v>
+        <v>0.01035369834815312</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0600511561052868</v>
+        <v>0.06005115610528679</v>
       </c>
       <c r="C10" t="n">
         <v>0.08397271952259165</v>
       </c>
       <c r="D10" t="n">
-        <v>5.799971574021949</v>
+        <v>5.799971574022015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.005711613978196381</v>
+        <v>0.005711613978196401</v>
       </c>
       <c r="B11" t="n">
         <v>0.06168490787763862</v>
@@ -592,7 +592,7 @@
         <v>0.07502131287297528</v>
       </c>
       <c r="D11" t="n">
-        <v>10.79990841697561</v>
+        <v>10.79990841697557</v>
       </c>
     </row>
   </sheetData>
